--- a/reports/corpus_1-unigram_bigram_trigram-fold-3.xlsx
+++ b/reports/corpus_1-unigram_bigram_trigram-fold-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,24 +446,24 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CDI</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CDP</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CON</t>
@@ -471,150 +471,80 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FW</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNU</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PRP</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>UH</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>WPRB</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -627,115 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8166666666666667</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.95</v>
+        <v>0.9964539007092199</v>
       </c>
       <c r="D2" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6495327102803738</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8828125</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2456140350877193</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.676923076923077</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.7802197802197802</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.375</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0641025641025641</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9887218045112782</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2720306513409962</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.753731343283582</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04950495049504951</v>
+        <v>0.4650205761316872</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.615039668851328</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0.4861882538591562</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2297297297297297</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.1129032258064516</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.3805394990366089</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.2688298307359713</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.8929942836847947</v>
+        <v>0.8452428692256992</v>
       </c>
     </row>
     <row r="3">
@@ -745,115 +633,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9858156028368794</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.9342105263157895</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M3" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.3310258023914411</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1168289290681502</v>
+        <v>0.9805825242718447</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.8968253968253969</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.615039668851328</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.8415725652816402</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.3805394990366089</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.6081747070640958</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.3805394990366089</v>
+        <v>0.615039668851328</v>
       </c>
     </row>
     <row r="4">
@@ -863,115 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8990825688073394</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9982238010657194</v>
       </c>
       <c r="D4" t="n">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7830985915492958</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9377593360995851</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3888888888888888</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8073394495412844</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.8502994011976048</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.3629032258064516</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8292682926829269</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1204819277108434</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5</v>
+        <v>0.495992456388496</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2092154420921544</v>
+        <v>0.8523206751054851</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09433962264150944</v>
+        <v>0.6124661246612467</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2</v>
+        <v>0.8383233532934131</v>
       </c>
       <c r="T4" t="n">
-        <v>0.85</v>
+        <v>0.366723259762309</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.615039668851328</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0.560022456112075</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.368421052631579</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.2028985507246377</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.05333333333333332</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.2978723404255319</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.3805394990366089</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.3078136357059463</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.369711223137157</v>
+        <v>0.6159806637672338</v>
       </c>
     </row>
     <row r="5">
@@ -981,115 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>141</v>
+      </c>
+      <c r="I5" t="n">
+        <v>113</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>15</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>44</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1589</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="n">
-        <v>719</v>
+        <v>103</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="T5" t="n">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.615039668851328</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>2899</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.3805394990366089</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1038</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1038</v>
+        <v>2899</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_bigram_trigram-fold-3.xlsx
+++ b/reports/corpus_1-unigram_bigram_trigram-fold-3.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9964539007092199</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6495327102803738</v>
+        <v>0.8738317757009346</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8828125</v>
+        <v>0.9609375</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7802197802197802</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="M2" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7454545454545455</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9887218045112782</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2720306513409962</v>
+        <v>0.5670498084291188</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.753731343283582</v>
+        <v>0.9776119402985075</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4650205761316872</v>
+        <v>0.7695473251028807</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="V2" t="n">
-        <v>0.615039668851328</v>
+        <v>0.8251121076233184</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4861882538591562</v>
+        <v>0.8220444583879024</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8452428692256992</v>
+        <v>0.867545611627068</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -642,16 +642,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9858156028368794</v>
+        <v>0.958974358974359</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9</v>
+        <v>0.9037037037037037</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -672,34 +672,34 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3310258023914411</v>
+        <v>0.576837416481069</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9805825242718447</v>
+        <v>0.9776119402985075</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8968253968253969</v>
+        <v>0.8820754716981132</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.8900523560209425</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8307692307692308</v>
+        <v>0.8550295857988166</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.615039668851328</v>
+        <v>0.8251121076233184</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8415725652816402</v>
+        <v>0.8914091864888818</v>
       </c>
       <c r="X3" t="n">
-        <v>0.615039668851328</v>
+        <v>0.8251121076233184</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9982238010657194</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8275862068965517</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3125</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7830985915492958</v>
+        <v>0.9144254278728606</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9377593360995851</v>
+        <v>0.9800796812749004</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8502994011976048</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3629032258064516</v>
+        <v>0.7327327327327327</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5454545454545454</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8541666666666666</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.495992456388496</v>
+        <v>0.7244755244755244</v>
       </c>
       <c r="P4" t="n">
-        <v>0.427710843373494</v>
+        <v>0.723716381418093</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8523206751054851</v>
+        <v>0.9776119402985075</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6124661246612467</v>
+        <v>0.8219780219780221</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8383233532934131</v>
+        <v>0.8923884514435696</v>
       </c>
       <c r="T4" t="n">
-        <v>0.366723259762309</v>
+        <v>0.7252195734002509</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.88</v>
       </c>
       <c r="V4" t="n">
-        <v>0.615039668851328</v>
+        <v>0.8251121076233184</v>
       </c>
       <c r="W4" t="n">
-        <v>0.560022456112075</v>
+        <v>0.8466677396257964</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6159806637672338</v>
+        <v>0.8235965790676402</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="I5" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="L5" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O5" t="n">
-        <v>1589</v>
+        <v>898</v>
       </c>
       <c r="P5" t="n">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="Q5" t="n">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="R5" t="n">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="S5" t="n">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="T5" t="n">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="V5" t="n">
-        <v>0.615039668851328</v>
+        <v>0.8251121076233184</v>
       </c>
       <c r="W5" t="n">
         <v>2899</v>
